--- a/moyusi/Keywords/Web/优惠券-未开始检查.xlsx
+++ b/moyusi/Keywords/Web/优惠券-未开始检查.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="115">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所有商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://101.132.157.87:8080/#/marketing/storeMarket/activityCoupon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,10 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class="center"]/ul/*/span</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>//*[@class="title"]/span</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -243,14 +235,6 @@
   </si>
   <si>
     <t>优惠券</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-10-19 00:00:00 - 2018-10-30 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-10-19 00:00:00 - 2018-10-30 00:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -916,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -991,13 +975,13 @@
       </c>
       <c r="B4" s="6"/>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1030,13 +1014,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1044,7 +1028,7 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1071,7 +1055,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>24</v>
@@ -1085,7 +1069,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>25</v>
@@ -1099,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>27</v>
@@ -1127,10 +1111,10 @@
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1151,7 +1135,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1165,10 +1149,10 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1189,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1203,10 +1187,10 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1227,7 +1211,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1244,7 +1228,7 @@
         <v>33</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1265,26 +1249,26 @@
         <v>34</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="F26" s="20"/>
     </row>
@@ -1293,11 +1277,11 @@
         <v>34</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="17" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F27" s="20"/>
     </row>
@@ -1316,14 +1300,14 @@
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="13"/>
       <c r="D29" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="15"/>
     </row>
@@ -1332,7 +1316,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C30" s="17">
         <v>0</v>
@@ -1342,7 +1326,7 @@
         <v>38</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1396,21 +1380,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C34" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>59</v>
+      <c r="F34" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1421,13 +1405,13 @@
         <v>37</v>
       </c>
       <c r="C35" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1438,13 +1422,13 @@
         <v>35</v>
       </c>
       <c r="C36" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1455,234 +1439,225 @@
         <v>37</v>
       </c>
       <c r="C37" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C38" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="F38" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="10">
-        <v>4</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="F39" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C41" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="10">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F42" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B42" s="13">
         <v>3000</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="12" t="s">
+      <c r="D42" s="14"/>
+      <c r="E42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="D45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B48" s="13">
         <v>3000</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="12" t="s">
+      <c r="D48" s="14"/>
+      <c r="E48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="D49" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="D48" s="11" t="s">
+      <c r="E49" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" s="11"/>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="50" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="13">
-        <v>3000</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="D52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" t="s">
-        <v>66</v>
+      <c r="F52" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
@@ -1690,220 +1665,163 @@
         <v>9</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="D60" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="13">
-        <v>3000</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="13">
-        <v>3000</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="13">
-        <v>3000</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="15"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="11" t="s">
+      <c r="D62" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F62" s="16" t="s">
         <v>82</v>
       </c>
+    </row>
+    <row r="63" spans="1:6" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>84</v>
+        <v>9</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="D69" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" t="s">
-        <v>46</v>
-      </c>
+      <c r="E65" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F65" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
